--- a/BOSS.xlsx
+++ b/BOSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owenb\Desktop\ShatteredRainbow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C1048-7E01-473A-86EE-6ACE9650495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D756F3A-C33F-41B9-88B7-EC17C081376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02B9FF13-C7CA-459D-BD08-33E773861B19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>初始生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,22 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOSS使用彈幕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +89,10 @@
   </si>
   <si>
     <t>加三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963E65F0-2233-4FF1-908C-7A6DC2985D77}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -481,7 +469,7 @@
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +505,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -537,33 +528,39 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -572,30 +569,18 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BOSS.xlsx
+++ b/BOSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owenb\Desktop\ShatteredRainbow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D756F3A-C33F-41B9-88B7-EC17C081376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00575724-3D34-4163-BCB1-505C627B5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02B9FF13-C7CA-459D-BD08-33E773861B19}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
